--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H2">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I2">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J2">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N2">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O2">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P2">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q2">
-        <v>52.56813970601056</v>
+        <v>55.752736938127</v>
       </c>
       <c r="R2">
-        <v>52.56813970601056</v>
+        <v>223.010947752508</v>
       </c>
       <c r="S2">
-        <v>0.01849913717015721</v>
+        <v>0.01726818679308378</v>
       </c>
       <c r="T2">
-        <v>0.01849913717015721</v>
+        <v>0.01184497628841616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H3">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I3">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J3">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N3">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P3">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q3">
-        <v>12.74715681070096</v>
+        <v>14.19501223506633</v>
       </c>
       <c r="R3">
-        <v>12.74715681070096</v>
+        <v>85.17007341039802</v>
       </c>
       <c r="S3">
-        <v>0.004485823612732837</v>
+        <v>0.004396593535439625</v>
       </c>
       <c r="T3">
-        <v>0.004485823612732837</v>
+        <v>0.004523712894796588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -664,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H4">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I4">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J4">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N4">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O4">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P4">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q4">
-        <v>37.63910991774961</v>
+        <v>42.62063592535151</v>
       </c>
       <c r="R4">
-        <v>37.63910991774961</v>
+        <v>255.723815552109</v>
       </c>
       <c r="S4">
-        <v>0.01324549548880958</v>
+        <v>0.01320080668354919</v>
       </c>
       <c r="T4">
-        <v>0.01324549548880958</v>
+        <v>0.01358248356022232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H5">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I5">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J5">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N5">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O5">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P5">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q5">
-        <v>34.76142230851981</v>
+        <v>36.9080353592905</v>
       </c>
       <c r="R5">
-        <v>34.76142230851981</v>
+        <v>221.448212155743</v>
       </c>
       <c r="S5">
-        <v>0.01223281484015583</v>
+        <v>0.01143145401915009</v>
       </c>
       <c r="T5">
-        <v>0.01223281484015583</v>
+        <v>0.01176197334046543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H6">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I6">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J6">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N6">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O6">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P6">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q6">
-        <v>39.3791983325557</v>
+        <v>43.11399967184367</v>
       </c>
       <c r="R6">
-        <v>39.3791983325557</v>
+        <v>258.683998031062</v>
       </c>
       <c r="S6">
-        <v>0.0138578461341572</v>
+        <v>0.01335361527733746</v>
       </c>
       <c r="T6">
-        <v>0.0138578461341572</v>
+        <v>0.01373971033149051</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H7">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I7">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J7">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N7">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O7">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P7">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q7">
-        <v>9.453132832745446</v>
+        <v>10.01245893585975</v>
       </c>
       <c r="R7">
-        <v>9.453132832745446</v>
+        <v>40.04983574343901</v>
       </c>
       <c r="S7">
-        <v>0.003326630958193864</v>
+        <v>0.003101139435618808</v>
       </c>
       <c r="T7">
-        <v>0.003326630958193864</v>
+        <v>0.002127202092618622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H8">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I8">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J8">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N8">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O8">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P8">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q8">
-        <v>97.009743574694</v>
+        <v>56.79461056519668</v>
       </c>
       <c r="R8">
-        <v>97.009743574694</v>
+        <v>340.76766339118</v>
       </c>
       <c r="S8">
-        <v>0.03413848318137935</v>
+        <v>0.01759088428553143</v>
       </c>
       <c r="T8">
-        <v>0.03413848318137935</v>
+        <v>0.01809949212541345</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H9">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I9">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J9">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N9">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P9">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q9">
-        <v>23.52372407371159</v>
+        <v>14.46028008909223</v>
       </c>
       <c r="R9">
-        <v>23.52372407371159</v>
+        <v>130.14252080183</v>
       </c>
       <c r="S9">
-        <v>0.008278181438913724</v>
+        <v>0.004478754432017727</v>
       </c>
       <c r="T9">
-        <v>0.008278181438913724</v>
+        <v>0.006912373982299476</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H10">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I10">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J10">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N10">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O10">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P10">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q10">
-        <v>69.459570415103</v>
+        <v>43.41710474425167</v>
       </c>
       <c r="R10">
-        <v>69.459570415103</v>
+        <v>390.7539426982651</v>
       </c>
       <c r="S10">
-        <v>0.02444336299658452</v>
+        <v>0.01344749542198545</v>
       </c>
       <c r="T10">
-        <v>0.02444336299658452</v>
+        <v>0.02075445726997511</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H11">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I11">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J11">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N11">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O11">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P11">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q11">
-        <v>64.14905840876814</v>
+        <v>37.59775053346168</v>
       </c>
       <c r="R11">
-        <v>64.14905840876814</v>
+        <v>338.3797548011551</v>
       </c>
       <c r="S11">
-        <v>0.02257455252319958</v>
+        <v>0.01164507815880138</v>
       </c>
       <c r="T11">
-        <v>0.02257455252319958</v>
+        <v>0.01797266103970755</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H12">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I12">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J12">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N12">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O12">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P12">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q12">
-        <v>72.67074607894969</v>
+        <v>43.91968817580779</v>
       </c>
       <c r="R12">
-        <v>72.67074607894969</v>
+        <v>395.2771935822701</v>
       </c>
       <c r="S12">
-        <v>0.0255734006851006</v>
+        <v>0.01360315961089964</v>
       </c>
       <c r="T12">
-        <v>0.0255734006851006</v>
+        <v>0.0209947046659328</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H13">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I13">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J13">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N13">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O13">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P13">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q13">
-        <v>17.4449009839567</v>
+        <v>10.1995657485525</v>
       </c>
       <c r="R13">
-        <v>17.4449009839567</v>
+        <v>61.19739449131502</v>
       </c>
       <c r="S13">
-        <v>0.006138996320334437</v>
+        <v>0.003159091664859548</v>
       </c>
       <c r="T13">
-        <v>0.006138996320334437</v>
+        <v>0.00325043094954662</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H14">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I14">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J14">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N14">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O14">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P14">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q14">
-        <v>651.1828609033912</v>
+        <v>102.8059376505007</v>
       </c>
       <c r="R14">
-        <v>651.1828609033912</v>
+        <v>616.835625903004</v>
       </c>
       <c r="S14">
-        <v>0.2291563128175502</v>
+        <v>0.03184188314839365</v>
       </c>
       <c r="T14">
-        <v>0.2291563128175502</v>
+        <v>0.03276253222680301</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H15">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I15">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J15">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N15">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P15">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q15">
-        <v>157.9041998974772</v>
+        <v>26.17506552917489</v>
       </c>
       <c r="R15">
-        <v>157.9041998974772</v>
+        <v>235.5755897625741</v>
       </c>
       <c r="S15">
-        <v>0.05556771592039737</v>
+        <v>0.008107152145384615</v>
       </c>
       <c r="T15">
-        <v>0.05556771592039737</v>
+        <v>0.01251233315220043</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H16">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I16">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J16">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N16">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O16">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P16">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q16">
-        <v>466.2509157670453</v>
+        <v>78.59084020267967</v>
       </c>
       <c r="R16">
-        <v>466.2509157670453</v>
+        <v>707.317561824117</v>
       </c>
       <c r="S16">
-        <v>0.164077323160435</v>
+        <v>0.02434178810542289</v>
       </c>
       <c r="T16">
-        <v>0.164077323160435</v>
+        <v>0.03756837873934724</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H17">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I17">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J17">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N17">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O17">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P17">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q17">
-        <v>430.6038325595291</v>
+        <v>68.05702088061767</v>
       </c>
       <c r="R17">
-        <v>430.6038325595291</v>
+        <v>612.513187925559</v>
       </c>
       <c r="S17">
-        <v>0.151532837362387</v>
+        <v>0.02107916873124167</v>
       </c>
       <c r="T17">
-        <v>0.151532837362387</v>
+        <v>0.03253295078308032</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H18">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I18">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J18">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N18">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O18">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P18">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q18">
-        <v>487.8060965003806</v>
+        <v>79.50058428604513</v>
       </c>
       <c r="R18">
-        <v>487.8060965003806</v>
+        <v>715.5052585744061</v>
       </c>
       <c r="S18">
-        <v>0.1716627588890633</v>
+        <v>0.02462356137124285</v>
       </c>
       <c r="T18">
-        <v>0.1716627588890633</v>
+        <v>0.03800325906626081</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9548856666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.864657</v>
+      </c>
+      <c r="I19">
+        <v>0.1157119372972211</v>
+      </c>
+      <c r="J19">
+        <v>0.1592631742399304</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.3348755</v>
+      </c>
+      <c r="N19">
+        <v>38.66975100000001</v>
+      </c>
+      <c r="O19">
+        <v>0.04941913452582716</v>
+      </c>
+      <c r="P19">
+        <v>0.03694338192314826</v>
+      </c>
+      <c r="Q19">
+        <v>18.4625954817345</v>
+      </c>
+      <c r="R19">
+        <v>110.775572890407</v>
+      </c>
+      <c r="S19">
+        <v>0.005718383795535448</v>
+      </c>
+      <c r="T19">
+        <v>0.005883720272238659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.252014</v>
+      </c>
+      <c r="H20">
+        <v>12.504028</v>
+      </c>
+      <c r="I20">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J20">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>107.663086</v>
+      </c>
+      <c r="N20">
+        <v>215.326172</v>
+      </c>
+      <c r="O20">
+        <v>0.2751823527645522</v>
+      </c>
+      <c r="P20">
+        <v>0.2057131686791961</v>
+      </c>
+      <c r="Q20">
+        <v>673.111120955204</v>
+      </c>
+      <c r="R20">
+        <v>2692.444483820816</v>
+      </c>
+      <c r="S20">
+        <v>0.2084813985375434</v>
+      </c>
+      <c r="T20">
+        <v>0.1430061680385635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.252014</v>
+      </c>
+      <c r="H21">
+        <v>12.504028</v>
+      </c>
+      <c r="I21">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J21">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>27.41172733333334</v>
+      </c>
+      <c r="N21">
+        <v>82.23518200000001</v>
+      </c>
+      <c r="O21">
+        <v>0.07006323059444025</v>
+      </c>
+      <c r="P21">
+        <v>0.07856388152449204</v>
+      </c>
+      <c r="Q21">
+        <v>171.3785030521827</v>
+      </c>
+      <c r="R21">
+        <v>1028.271018313096</v>
+      </c>
+      <c r="S21">
+        <v>0.05308073048159829</v>
+      </c>
+      <c r="T21">
+        <v>0.05461546149519555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.252014</v>
+      </c>
+      <c r="H22">
+        <v>12.504028</v>
+      </c>
+      <c r="I22">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J22">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>82.303927</v>
+      </c>
+      <c r="N22">
+        <v>246.911781</v>
+      </c>
+      <c r="O22">
+        <v>0.2103654011331419</v>
+      </c>
+      <c r="P22">
+        <v>0.2358886724356653</v>
+      </c>
+      <c r="Q22">
+        <v>514.565303858978</v>
+      </c>
+      <c r="R22">
+        <v>3087.391823153868</v>
+      </c>
+      <c r="S22">
+        <v>0.1593753109221844</v>
+      </c>
+      <c r="T22">
+        <v>0.1639833528661206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.252014</v>
+      </c>
+      <c r="H23">
+        <v>12.504028</v>
+      </c>
+      <c r="I23">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J23">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>71.272429</v>
+      </c>
+      <c r="N23">
+        <v>213.817287</v>
+      </c>
+      <c r="O23">
+        <v>0.1821693528222338</v>
+      </c>
+      <c r="P23">
+        <v>0.2042716462128862</v>
+      </c>
+      <c r="Q23">
+        <v>445.596223922006</v>
+      </c>
+      <c r="R23">
+        <v>2673.577343532036</v>
+      </c>
+      <c r="S23">
+        <v>0.1380136519130407</v>
+      </c>
+      <c r="T23">
+        <v>0.1420040610496329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>6.15154740738719</v>
-      </c>
-      <c r="H19">
-        <v>6.15154740738719</v>
-      </c>
-      <c r="I19">
-        <v>0.8132052746502813</v>
-      </c>
-      <c r="J19">
-        <v>0.8132052746502813</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>19.0358265209011</v>
-      </c>
-      <c r="N19">
-        <v>19.0358265209011</v>
-      </c>
-      <c r="O19">
-        <v>0.05067395377897673</v>
-      </c>
-      <c r="P19">
-        <v>0.05067395377897673</v>
-      </c>
-      <c r="Q19">
-        <v>117.0997892821215</v>
-      </c>
-      <c r="R19">
-        <v>117.0997892821215</v>
-      </c>
-      <c r="S19">
-        <v>0.04120832650044843</v>
-      </c>
-      <c r="T19">
-        <v>0.04120832650044843</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.252014</v>
+      </c>
+      <c r="H24">
+        <v>12.504028</v>
+      </c>
+      <c r="I24">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J24">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>83.25665266666667</v>
+      </c>
+      <c r="N24">
+        <v>249.769958</v>
+      </c>
+      <c r="O24">
+        <v>0.2128005281598046</v>
+      </c>
+      <c r="P24">
+        <v>0.2386192492246123</v>
+      </c>
+      <c r="Q24">
+        <v>520.5217580651373</v>
+      </c>
+      <c r="R24">
+        <v>3123.130548390824</v>
+      </c>
+      <c r="S24">
+        <v>0.1612201919003247</v>
+      </c>
+      <c r="T24">
+        <v>0.1658815751609282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.252014</v>
+      </c>
+      <c r="H25">
+        <v>12.504028</v>
+      </c>
+      <c r="I25">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J25">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.3348755</v>
+      </c>
+      <c r="N25">
+        <v>38.66975100000001</v>
+      </c>
+      <c r="O25">
+        <v>0.04941913452582716</v>
+      </c>
+      <c r="P25">
+        <v>0.03694338192314826</v>
+      </c>
+      <c r="Q25">
+        <v>120.881912314257</v>
+      </c>
+      <c r="R25">
+        <v>483.5276492570281</v>
+      </c>
+      <c r="S25">
+        <v>0.03744051962981337</v>
+      </c>
+      <c r="T25">
+        <v>0.02568202860874437</v>
       </c>
     </row>
   </sheetData>
